--- a/DA_Business/lessons/01_05_分析数据/air-routes-sfo.xlsx
+++ b/DA_Business/lessons/01_05_分析数据/air-routes-sfo.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\baiduDrive\online_course\udacity\uda\DA_Business\lessons\01_05_分析数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jun\codes\udacity\DA_Business\lessons\01_05_分析数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5A824D20-4F3A-405A-BB33-DC535F237A37}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="SFO routes" sheetId="6" r:id="rId1"/>
-    <sheet name="Airlines" sheetId="9" r:id="rId2"/>
-    <sheet name="Airports" sheetId="8" r:id="rId3"/>
-    <sheet name="Info" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId1"/>
+    <sheet name="SFO routes" sheetId="6" r:id="rId2"/>
+    <sheet name="Airlines" sheetId="9" r:id="rId3"/>
+    <sheet name="Airports" sheetId="8" r:id="rId4"/>
+    <sheet name="Info" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SFO routes'!$A$1:$C$250</definedName>
-    <definedName name="airline_lookup" localSheetId="1">Airlines!$A:$B</definedName>
-    <definedName name="airport_lookup" localSheetId="2">Airports!$A:$B</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SFO routes'!$A$1:$E$250</definedName>
+    <definedName name="airline_lookup" localSheetId="2">Airlines!$A:$B</definedName>
+    <definedName name="airport_lookup" localSheetId="3">Airports!$A:$B</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="3248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4105" uniqueCount="3251">
   <si>
     <t>ABE</t>
   </si>
@@ -9780,12 +9780,21 @@
   </si>
   <si>
     <t>Virgin America</t>
+  </si>
+  <si>
+    <t>行标签</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>计数项:Destination Airport Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="12"/>
@@ -9799,6 +9808,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -9814,22 +9824,26 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -9869,7 +9883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -9887,6 +9901,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9903,6 +9922,1495 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Administrator" refreshedDate="43259.587372685186" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="249">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D1:E250" sheet="SFO routes"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Airline Name" numFmtId="0">
+      <sharedItems count="42">
+        <s v="American Airlines"/>
+        <s v="Air Canada"/>
+        <s v="Air France"/>
+        <s v="Air India"/>
+        <s v="Aeromexico"/>
+        <s v="Alaska Airlines/Horizon Air"/>
+        <s v="Avianca"/>
+        <s v="Finnair"/>
+        <s v="Alitalia"/>
+        <s v="JetBlue"/>
+        <s v="British Airways"/>
+        <s v="EVA Air"/>
+        <s v="Air China"/>
+        <s v="China Airlines"/>
+        <s v="Cathay Pacific"/>
+        <s v="Delta"/>
+        <s v="Aer Lingus"/>
+        <s v="Emirates"/>
+        <s v="Frontier Airlines"/>
+        <s v="AirTran Airways"/>
+        <s v="Hawaiian Airlines"/>
+        <s v="Iberia"/>
+        <s v="Japan Airlines"/>
+        <s v="Korean Air"/>
+        <s v="KLM Royal Dutch Airlines"/>
+        <s v="Lufthansa"/>
+        <s v="Swiss International Airlines"/>
+        <s v="China Eastern Air"/>
+        <s v="All Nippon Airways"/>
+        <s v="Air New Zealand"/>
+        <s v="Asiana Airlines"/>
+        <s v="Philippine Airlines"/>
+        <s v="SAS"/>
+        <s v="Singapore Airlines"/>
+        <s v="Sun Country Airlines"/>
+        <s v="United Airlines"/>
+        <s v="Transaero"/>
+        <s v="Chautauqua Airlines (US Airways Express)"/>
+        <s v="Virgin Atlantic"/>
+        <s v="Virgin America"/>
+        <s v="Southwest Airlines"/>
+        <s v="WestJet"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Destination Airport Name" numFmtId="0">
+      <sharedItems count="104">
+        <s v="Charlotte/Douglas International Airport"/>
+        <s v="Dallas/Fort Worth International Airport"/>
+        <s v="Hong Kong International Airport"/>
+        <s v="Henderson Executive Airport"/>
+        <s v="John F. Kennedy International Airport"/>
+        <s v="Los Angeles International Airport"/>
+        <s v="London Heathrow Airport"/>
+        <s v="Miami International Airport"/>
+        <s v="Chicago O'hare International Airport"/>
+        <s v="Portland International Airport"/>
+        <s v="Philadelphia International Airport"/>
+        <s v="Phoenix Sky Harbor International Airport"/>
+        <s v="Palm Springs International Airport"/>
+        <s v="Lic Gustavo Diaz Ordaz International Air"/>
+        <s v="Seattle/Tacoma International Airport"/>
+        <s v="Edmonton International Airport"/>
+        <s v="Montreal Dorval Airport"/>
+        <s v="Vancouver International Airport"/>
+        <s v="Calgary International Airport"/>
+        <s v="Victoria International Airport"/>
+        <s v="Lester B Pearson International Airport"/>
+        <s v="Atlanta International Airport"/>
+        <s v="Charles De Gaulle International Airport"/>
+        <s v="Honolulu International Airport"/>
+        <s v="Incheon International Airport"/>
+        <s v="De Guanajuato International Airport"/>
+        <s v="Don Miguel Hidalgo International Airport"/>
+        <s v="Benito Juarez International Airport"/>
+        <s v="Mujica International Airport"/>
+        <s v="Los Cabos International Airport"/>
+        <s v="Comalapa International Airport"/>
+        <s v="Austin-Bergstrom International Airport"/>
+        <s v="Boston Logan International Airport"/>
+        <s v="Dubai International Airport"/>
+        <s v="Fort Lauderdale Hollywood International Airport"/>
+        <s v="Long Beach Airport"/>
+        <s v="Chiang Kai-Shek International Airport"/>
+        <s v="Beijing Capital International Airport"/>
+        <s v="Pudong Airport"/>
+        <s v="Schipol Airport"/>
+        <s v="Cincinnati / Northern Kentucky International Airport"/>
+        <s v="Detroit Metro Airport"/>
+        <s v="Minneapolis/St. Paul International Airport"/>
+        <s v="Salt Lake City International Airport"/>
+        <s v="Dublin International Airport"/>
+        <s v="Denver International Airport"/>
+        <s v="Chicago Midway Airport"/>
+        <s v="General Mitchell International Airport"/>
+        <s v="Norfolk International Airport"/>
+        <s v="Mccarran International Airport"/>
+        <s v="Frankfurt International Airport"/>
+        <s v="Franz Josef Strauss International Airport"/>
+        <s v="Zurich International Airport"/>
+        <s v="Kansai International Airport"/>
+        <s v="Narita International Airport"/>
+        <s v="Auckland International Airport"/>
+        <s v="Kingsford Smith International Airport"/>
+        <s v="Ninoy Aquino International Airport"/>
+        <s v="Kastrup International Airport"/>
+        <s v="Albuquerque International Sunport"/>
+        <s v="Arcata Airport"/>
+        <s v="Meadows Field Airport"/>
+        <s v="Boise Airport"/>
+        <s v="Burbank Bob Hope Airport"/>
+        <s v="Baltimore / Washington International Airport"/>
+        <s v="Jack Mc Namara Field Airport"/>
+        <s v="Chico Municipal Airport"/>
+        <s v="Cleveland Hopkins International Airport"/>
+        <s v="Colorado Springs Airport"/>
+        <s v="Cancun International Airport"/>
+        <s v="Ronald Reagan Washington National Airport"/>
+        <s v="Eugene Airport"/>
+        <s v="Newark Liberty International Airport"/>
+        <s v="Fresno Air Terminal"/>
+        <s v="Washington Dulles International Airport"/>
+        <s v="Bush Intercontinental Airport"/>
+        <s v="Indianapolis International Airport"/>
+        <s v="Kona International Airport"/>
+        <s v="Lihue Airport"/>
+        <s v="Klamath Falls Airport"/>
+        <s v="Kansas City International Airport"/>
+        <s v="Orlando International Airport"/>
+        <s v="Medford Rogue Valley International Airport"/>
+        <s v="Modesto City-County Airport"/>
+        <s v="Monterey Peninsula Airport"/>
+        <s v="New Orleans International Airport"/>
+        <s v="Kahului Airport"/>
+        <s v="Will Rogers World Airport"/>
+        <s v="Ontario International Airport"/>
+        <s v="North Bend Municipal Airport"/>
+        <s v="Pittsburgh International Airport"/>
+        <s v="Tri-Cities Airport"/>
+        <s v="Redding Municipal Airport"/>
+        <s v="Roberts Field"/>
+        <s v="Raleigh-Durham International Airport"/>
+        <s v="Reno-Tahoe International Airport"/>
+        <s v="San Diego International Airport"/>
+        <s v="San Antonio International Airport"/>
+        <s v="Santa Barbara Airport"/>
+        <s v="San Luis County Regional Airport"/>
+        <s v="Sacramento International Airport"/>
+        <s v="John Wayne Airport"/>
+        <s v="Lambert-St. Louis International Airport"/>
+        <s v="Tucson International Airport"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="249">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="18"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="43">
+        <item x="16"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="28"/>
+        <item x="0"/>
+        <item x="30"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="37"/>
+        <item x="13"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="40"/>
+        <item x="34"/>
+        <item x="26"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="41"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="105">
+        <item x="59"/>
+        <item x="60"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="31"/>
+        <item x="64"/>
+        <item x="37"/>
+        <item x="27"/>
+        <item x="62"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="75"/>
+        <item x="18"/>
+        <item x="69"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="36"/>
+        <item x="46"/>
+        <item x="8"/>
+        <item x="66"/>
+        <item x="40"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="45"/>
+        <item x="41"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="44"/>
+        <item x="15"/>
+        <item x="71"/>
+        <item x="34"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="73"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="76"/>
+        <item x="65"/>
+        <item x="4"/>
+        <item x="101"/>
+        <item x="86"/>
+        <item x="53"/>
+        <item x="80"/>
+        <item x="58"/>
+        <item x="56"/>
+        <item x="79"/>
+        <item x="77"/>
+        <item x="102"/>
+        <item x="20"/>
+        <item x="13"/>
+        <item x="78"/>
+        <item x="6"/>
+        <item x="35"/>
+        <item x="5"/>
+        <item x="29"/>
+        <item x="49"/>
+        <item x="61"/>
+        <item x="82"/>
+        <item x="7"/>
+        <item x="42"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="16"/>
+        <item x="28"/>
+        <item x="54"/>
+        <item x="85"/>
+        <item x="72"/>
+        <item x="57"/>
+        <item x="48"/>
+        <item x="89"/>
+        <item x="88"/>
+        <item x="81"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="90"/>
+        <item x="9"/>
+        <item x="38"/>
+        <item x="94"/>
+        <item x="92"/>
+        <item x="95"/>
+        <item x="93"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="96"/>
+        <item x="99"/>
+        <item x="98"/>
+        <item x="39"/>
+        <item x="14"/>
+        <item x="91"/>
+        <item x="103"/>
+        <item x="17"/>
+        <item x="19"/>
+        <item x="74"/>
+        <item x="87"/>
+        <item x="52"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="43">
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="计数项:Destination Airport Name" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10167,14 +11675,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E250"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="12" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>3247</v>
+      </c>
+      <c r="B5" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="12" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B6" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="12" t="s">
+        <v>2390</v>
+      </c>
+      <c r="B7" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="12" t="s">
+        <v>3012</v>
+      </c>
+      <c r="B8" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12" t="s">
+        <v>2413</v>
+      </c>
+      <c r="B9" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B12" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="12" t="s">
+        <v>2393</v>
+      </c>
+      <c r="B13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="12" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B14" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="12" t="s">
+        <v>2573</v>
+      </c>
+      <c r="B15" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>2396</v>
+      </c>
+      <c r="B17" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B18" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="12" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12" t="s">
+        <v>2627</v>
+      </c>
+      <c r="B20" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>2472</v>
+      </c>
+      <c r="B21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="12" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B22" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="12" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="12" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="12" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="12" t="s">
+        <v>2484</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B27" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="12" t="s">
+        <v>3246</v>
+      </c>
+      <c r="B28" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B29" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="12" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="12" t="s">
+        <v>2648</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="12" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B32" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="12" t="s">
+        <v>2677</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="12" t="s">
+        <v>2928</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="12" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="12" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="12" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="12" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="12" t="s">
+        <v>2698</v>
+      </c>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="12" t="s">
+        <v>2574</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="12" t="s">
+        <v>2498</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="12" t="s">
+        <v>2848</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="12" t="s">
+        <v>2452</v>
+      </c>
+      <c r="B43" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="12" t="s">
+        <v>2540</v>
+      </c>
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="12" t="s">
+        <v>2543</v>
+      </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B46" s="13">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H250"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E250"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="7.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
@@ -10184,7 +12065,7 @@
     <col min="7" max="16384" width="12.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="18.75">
       <c r="A1" s="9" t="s">
         <v>2347</v>
       </c>
@@ -10216,8 +12097,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E2" s="1" t="str">
-        <f>VLOOKUP(B2, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C2, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Charlotte/Douglas International Airport</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10235,8 +12116,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E3" s="1" t="str">
-        <f>VLOOKUP(B3, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C3, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dallas/Fort Worth International Airport</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10254,8 +12135,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E4" s="1" t="str">
-        <f>VLOOKUP(B4, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C4, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Hong Kong International Airport</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10273,8 +12154,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>VLOOKUP(B5, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C5, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Henderson Executive Airport</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10292,8 +12173,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>VLOOKUP(B6, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C6, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10311,8 +12192,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>VLOOKUP(B7, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C7, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10330,8 +12211,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E8" s="1" t="str">
-        <f>VLOOKUP(B8, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C8, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10349,8 +12230,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>VLOOKUP(B9, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C9, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Miami International Airport</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10368,8 +12249,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>VLOOKUP(B10, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C10, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago O'hare International Airport</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10387,8 +12268,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>VLOOKUP(B11, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C11, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Portland International Airport</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10406,8 +12287,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>VLOOKUP(B12, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C12, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Philadelphia International Airport</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10425,8 +12306,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>VLOOKUP(B13, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C13, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Phoenix Sky Harbor International Airport</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10444,8 +12325,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>VLOOKUP(B14, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C14, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Palm Springs International Airport</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10463,8 +12344,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>VLOOKUP(B15, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C15, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lic Gustavo Diaz Ordaz International Air</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10482,8 +12363,8 @@
         <v>American Airlines</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>VLOOKUP(B16, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C16, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Seattle/Tacoma International Airport</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10501,8 +12382,8 @@
         <v>Air Canada</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>VLOOKUP(B17, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C17, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Edmonton International Airport</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10520,8 +12401,8 @@
         <v>Air Canada</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>VLOOKUP(B18, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C18, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Montreal Dorval Airport</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10539,8 +12420,8 @@
         <v>Air Canada</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>VLOOKUP(B19, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C19, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Vancouver International Airport</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10558,8 +12439,8 @@
         <v>Air Canada</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>VLOOKUP(B20, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C20, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Calgary International Airport</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10577,8 +12458,8 @@
         <v>Air Canada</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>VLOOKUP(B21, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C21, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Victoria International Airport</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10596,8 +12477,8 @@
         <v>Air Canada</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>VLOOKUP(B22, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C22, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lester B Pearson International Airport</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10615,8 +12496,8 @@
         <v>Air France</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>VLOOKUP(B23, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C23, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10634,8 +12515,8 @@
         <v>Air France</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>VLOOKUP(B24, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C24, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Charles De Gaulle International Airport</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10653,8 +12534,8 @@
         <v>Air France</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>VLOOKUP(B25, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C25, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Honolulu International Airport</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10672,8 +12553,8 @@
         <v>Air India</v>
       </c>
       <c r="E26" s="1" t="str">
-        <f>VLOOKUP(B26, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C26, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Hong Kong International Airport</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10691,8 +12572,8 @@
         <v>Air India</v>
       </c>
       <c r="E27" s="1" t="str">
-        <f>VLOOKUP(B27, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C27, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10710,8 +12591,8 @@
         <v>Aeromexico</v>
       </c>
       <c r="E28" s="1" t="str">
-        <f>VLOOKUP(B28, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C28, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10729,8 +12610,8 @@
         <v>Aeromexico</v>
       </c>
       <c r="E29" s="1" t="str">
-        <f>VLOOKUP(B29, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C29, Airports!airport_lookup, 2, FALSE)</f>
+        <v>De Guanajuato International Airport</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10748,8 +12629,8 @@
         <v>Aeromexico</v>
       </c>
       <c r="E30" s="1" t="str">
-        <f>VLOOKUP(B30, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C30, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Don Miguel Hidalgo International Airport</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10767,8 +12648,8 @@
         <v>Aeromexico</v>
       </c>
       <c r="E31" s="1" t="str">
-        <f>VLOOKUP(B31, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
+        <f>VLOOKUP(C31, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Benito Juarez International Airport</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10786,11 +12667,11 @@
         <v>Aeromexico</v>
       </c>
       <c r="E32" s="1" t="str">
-        <f>VLOOKUP(B32, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f>VLOOKUP(C32, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Mujica International Airport</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>2354</v>
       </c>
@@ -10805,11 +12686,11 @@
         <v>Aeromexico</v>
       </c>
       <c r="E33" s="1" t="str">
-        <f>VLOOKUP(B33, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f>VLOOKUP(C33, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lic Gustavo Diaz Ordaz International Air</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>2354</v>
       </c>
@@ -10824,11 +12705,11 @@
         <v>Aeromexico</v>
       </c>
       <c r="E34" s="1" t="str">
-        <f>VLOOKUP(B34, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f>VLOOKUP(C34, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Cabos International Airport</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>359</v>
       </c>
@@ -10843,11 +12724,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E35" s="1" t="str">
-        <f>VLOOKUP(B35, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f>VLOOKUP(C35, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dallas/Fort Worth International Airport</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>359</v>
       </c>
@@ -10862,11 +12743,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E36" s="1" t="str">
-        <f>VLOOKUP(B36, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f>VLOOKUP(C36, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>359</v>
       </c>
@@ -10881,11 +12762,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E37" s="1" t="str">
-        <f>VLOOKUP(B37, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f>VLOOKUP(C37, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>359</v>
       </c>
@@ -10900,11 +12781,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E38" s="1" t="str">
-        <f>VLOOKUP(B38, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f>VLOOKUP(C38, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Miami International Airport</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>359</v>
       </c>
@@ -10919,11 +12800,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E39" s="1" t="str">
-        <f>VLOOKUP(B39, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <f>VLOOKUP(C39, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago O'hare International Airport</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>359</v>
       </c>
@@ -10938,11 +12819,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E40" s="1" t="str">
-        <f>VLOOKUP(B40, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <f>VLOOKUP(C40, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Portland International Airport</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>359</v>
       </c>
@@ -10957,11 +12838,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E41" s="1" t="str">
-        <f>VLOOKUP(B41, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <f>VLOOKUP(C41, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Palm Springs International Airport</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>359</v>
       </c>
@@ -10976,11 +12857,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E42" s="1" t="str">
-        <f>VLOOKUP(B42, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <f>VLOOKUP(C42, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lic Gustavo Diaz Ordaz International Air</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>359</v>
       </c>
@@ -10995,11 +12876,11 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E43" s="1" t="str">
-        <f>VLOOKUP(B43, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <f>VLOOKUP(C43, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Seattle/Tacoma International Airport</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>359</v>
       </c>
@@ -11014,11 +12895,12 @@
         <v>Alaska Airlines/Horizon Air</v>
       </c>
       <c r="E44" s="1" t="str">
-        <f>VLOOKUP(B44, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <f>VLOOKUP(C44, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Cabos International Airport</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
         <v>2355</v>
       </c>
@@ -11033,11 +12915,12 @@
         <v>Avianca</v>
       </c>
       <c r="E45" s="1" t="str">
-        <f>VLOOKUP(B45, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <f>VLOOKUP(C45, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Comalapa International Airport</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
         <v>2356</v>
       </c>
@@ -11052,11 +12935,12 @@
         <v>Finnair</v>
       </c>
       <c r="E46" s="1" t="str">
-        <f>VLOOKUP(B46, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <f>VLOOKUP(C46, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
         <v>372</v>
       </c>
@@ -11071,11 +12955,12 @@
         <v>Alitalia</v>
       </c>
       <c r="E47" s="1" t="str">
-        <f>VLOOKUP(B47, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <f>VLOOKUP(C47, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
         <v>372</v>
       </c>
@@ -11090,11 +12975,12 @@
         <v>Alitalia</v>
       </c>
       <c r="E48" s="1" t="str">
-        <f>VLOOKUP(B48, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <f>VLOOKUP(C48, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Charles De Gaulle International Airport</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
         <v>2357</v>
       </c>
@@ -11109,11 +12995,12 @@
         <v>JetBlue</v>
       </c>
       <c r="E49" s="1" t="str">
-        <f>VLOOKUP(B49, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <f>VLOOKUP(C49, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Austin-Bergstrom International Airport</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
         <v>2357</v>
       </c>
@@ -11128,11 +13015,12 @@
         <v>JetBlue</v>
       </c>
       <c r="E50" s="1" t="str">
-        <f>VLOOKUP(B50, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <f>VLOOKUP(C50, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Boston Logan International Airport</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
         <v>2357</v>
       </c>
@@ -11147,11 +13035,12 @@
         <v>JetBlue</v>
       </c>
       <c r="E51" s="1" t="str">
-        <f>VLOOKUP(B51, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <f>VLOOKUP(C51, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dubai International Airport</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
         <v>2357</v>
       </c>
@@ -11166,11 +13055,12 @@
         <v>JetBlue</v>
       </c>
       <c r="E52" s="1" t="str">
-        <f>VLOOKUP(B52, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <f>VLOOKUP(C52, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Fort Lauderdale Hollywood International Airport</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
         <v>2357</v>
       </c>
@@ -11185,11 +13075,12 @@
         <v>JetBlue</v>
       </c>
       <c r="E53" s="1" t="str">
-        <f>VLOOKUP(B53, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <f>VLOOKUP(C53, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
         <v>2357</v>
       </c>
@@ -11204,11 +13095,12 @@
         <v>JetBlue</v>
       </c>
       <c r="E54" s="1" t="str">
-        <f>VLOOKUP(B54, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <f>VLOOKUP(C54, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Long Beach Airport</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
         <v>2358</v>
       </c>
@@ -11223,11 +13115,12 @@
         <v>British Airways</v>
       </c>
       <c r="E55" s="1" t="str">
-        <f>VLOOKUP(B55, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <f>VLOOKUP(C55, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
         <v>2359</v>
       </c>
@@ -11242,11 +13135,12 @@
         <v>EVA Air</v>
       </c>
       <c r="E56" s="1" t="str">
-        <f>VLOOKUP(B56, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <f>VLOOKUP(C56, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chiang Kai-Shek International Airport</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -11261,11 +13155,12 @@
         <v>Air China</v>
       </c>
       <c r="E57" s="1" t="str">
-        <f>VLOOKUP(B57, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <f>VLOOKUP(C57, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Beijing Capital International Airport</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -11280,11 +13175,12 @@
         <v>Air China</v>
       </c>
       <c r="E58" s="1" t="str">
-        <f>VLOOKUP(B58, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <f>VLOOKUP(C58, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Pudong Airport</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>2360</v>
       </c>
@@ -11299,11 +13195,12 @@
         <v>China Airlines</v>
       </c>
       <c r="E59" s="1" t="str">
-        <f>VLOOKUP(B59, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <f>VLOOKUP(C59, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
         <v>2360</v>
       </c>
@@ -11318,11 +13215,12 @@
         <v>China Airlines</v>
       </c>
       <c r="E60" s="1" t="str">
-        <f>VLOOKUP(B60, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <f>VLOOKUP(C60, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chiang Kai-Shek International Airport</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
         <v>2361</v>
       </c>
@@ -11337,11 +13235,12 @@
         <v>Cathay Pacific</v>
       </c>
       <c r="E61" s="1" t="str">
-        <f>VLOOKUP(B61, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <f>VLOOKUP(C61, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Hong Kong International Airport</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11356,11 +13255,12 @@
         <v>Delta</v>
       </c>
       <c r="E62" s="1" t="str">
-        <f>VLOOKUP(B62, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <f>VLOOKUP(C62, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Schipol Airport</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11375,11 +13275,12 @@
         <v>Delta</v>
       </c>
       <c r="E63" s="1" t="str">
-        <f>VLOOKUP(B63, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <f>VLOOKUP(C63, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11394,11 +13295,12 @@
         <v>Delta</v>
       </c>
       <c r="E64" s="1" t="str">
-        <f>VLOOKUP(B64, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <f>VLOOKUP(C64, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Charles De Gaulle International Airport</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11413,11 +13315,12 @@
         <v>Delta</v>
       </c>
       <c r="E65" s="1" t="str">
-        <f>VLOOKUP(B65, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <f>VLOOKUP(C65, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Cincinnati / Northern Kentucky International Airport</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11432,11 +13335,12 @@
         <v>Delta</v>
       </c>
       <c r="E66" s="1" t="str">
-        <f>VLOOKUP(B66, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <f>VLOOKUP(C66, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Detroit Metro Airport</v>
+      </c>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11451,11 +13355,12 @@
         <v>Delta</v>
       </c>
       <c r="E67" s="1" t="str">
-        <f>VLOOKUP(B67, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <f>VLOOKUP(C67, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Honolulu International Airport</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11470,11 +13375,12 @@
         <v>Delta</v>
       </c>
       <c r="E68" s="1" t="str">
-        <f>VLOOKUP(B68, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <f>VLOOKUP(C68, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
+      </c>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11489,11 +13395,12 @@
         <v>Delta</v>
       </c>
       <c r="E69" s="1" t="str">
-        <f>VLOOKUP(B69, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <f>VLOOKUP(C69, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
+      </c>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11508,11 +13415,12 @@
         <v>Delta</v>
       </c>
       <c r="E70" s="1" t="str">
-        <f>VLOOKUP(B70, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <f>VLOOKUP(C70, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11527,11 +13435,12 @@
         <v>Delta</v>
       </c>
       <c r="E71" s="1" t="str">
-        <f>VLOOKUP(B71, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <f>VLOOKUP(C71, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11546,11 +13455,12 @@
         <v>Delta</v>
       </c>
       <c r="E72" s="1" t="str">
-        <f>VLOOKUP(B72, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <f>VLOOKUP(C72, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Benito Juarez International Airport</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11565,11 +13475,12 @@
         <v>Delta</v>
       </c>
       <c r="E73" s="1" t="str">
-        <f>VLOOKUP(B73, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <f>VLOOKUP(C73, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Minneapolis/St. Paul International Airport</v>
+      </c>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11584,11 +13495,12 @@
         <v>Delta</v>
       </c>
       <c r="E74" s="1" t="str">
-        <f>VLOOKUP(B74, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <f>VLOOKUP(C74, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Palm Springs International Airport</v>
+      </c>
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11603,11 +13515,12 @@
         <v>Delta</v>
       </c>
       <c r="E75" s="1" t="str">
-        <f>VLOOKUP(B75, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <f>VLOOKUP(C75, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Pudong Airport</v>
+      </c>
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11622,11 +13535,12 @@
         <v>Delta</v>
       </c>
       <c r="E76" s="1" t="str">
-        <f>VLOOKUP(B76, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <f>VLOOKUP(C76, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Seattle/Tacoma International Airport</v>
+      </c>
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11641,11 +13555,12 @@
         <v>Delta</v>
       </c>
       <c r="E77" s="1" t="str">
-        <f>VLOOKUP(B77, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <f>VLOOKUP(C77, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Salt Lake City International Airport</v>
+      </c>
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
         <v>2362</v>
       </c>
@@ -11660,11 +13575,12 @@
         <v>Delta</v>
       </c>
       <c r="E78" s="1" t="str">
-        <f>VLOOKUP(B78, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <f>VLOOKUP(C78, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chiang Kai-Shek International Airport</v>
+      </c>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
         <v>2363</v>
       </c>
@@ -11679,11 +13595,12 @@
         <v>Aer Lingus</v>
       </c>
       <c r="E79" s="1" t="str">
-        <f>VLOOKUP(B79, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <f>VLOOKUP(C79, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dublin International Airport</v>
+      </c>
+      <c r="H79"/>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>2364</v>
       </c>
@@ -11698,11 +13615,12 @@
         <v>Emirates</v>
       </c>
       <c r="E80" s="1" t="str">
-        <f>VLOOKUP(B80, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <f>VLOOKUP(C80, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dubai International Airport</v>
+      </c>
+      <c r="H80"/>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="3" t="s">
         <v>2365</v>
       </c>
@@ -11717,11 +13635,12 @@
         <v>Frontier Airlines</v>
       </c>
       <c r="E81" s="1" t="str">
-        <f>VLOOKUP(B81, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <f>VLOOKUP(C81, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Denver International Airport</v>
+      </c>
+      <c r="H81"/>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="3" t="s">
         <v>65</v>
       </c>
@@ -11736,11 +13655,12 @@
         <v>AirTran Airways</v>
       </c>
       <c r="E82" s="1" t="str">
-        <f>VLOOKUP(B82, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <f>VLOOKUP(C82, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H82"/>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="3" t="s">
         <v>65</v>
       </c>
@@ -11755,11 +13675,12 @@
         <v>AirTran Airways</v>
       </c>
       <c r="E83" s="1" t="str">
-        <f>VLOOKUP(B83, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <f>VLOOKUP(C83, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Denver International Airport</v>
+      </c>
+      <c r="H83"/>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
         <v>65</v>
       </c>
@@ -11774,11 +13695,12 @@
         <v>AirTran Airways</v>
       </c>
       <c r="E84" s="1" t="str">
-        <f>VLOOKUP(B84, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <f>VLOOKUP(C84, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago Midway Airport</v>
+      </c>
+      <c r="H84"/>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="3" t="s">
         <v>65</v>
       </c>
@@ -11793,11 +13715,12 @@
         <v>AirTran Airways</v>
       </c>
       <c r="E85" s="1" t="str">
-        <f>VLOOKUP(B85, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <f>VLOOKUP(C85, Airports!airport_lookup, 2, FALSE)</f>
+        <v>General Mitchell International Airport</v>
+      </c>
+      <c r="H85"/>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
         <v>65</v>
       </c>
@@ -11812,11 +13735,12 @@
         <v>AirTran Airways</v>
       </c>
       <c r="E86" s="1" t="str">
-        <f>VLOOKUP(B86, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <f>VLOOKUP(C86, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Norfolk International Airport</v>
+      </c>
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
         <v>2366</v>
       </c>
@@ -11831,11 +13755,12 @@
         <v>Hawaiian Airlines</v>
       </c>
       <c r="E87" s="1" t="str">
-        <f>VLOOKUP(B87, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <f>VLOOKUP(C87, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Honolulu International Airport</v>
+      </c>
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
         <v>2366</v>
       </c>
@@ -11850,11 +13775,12 @@
         <v>Hawaiian Airlines</v>
       </c>
       <c r="E88" s="1" t="str">
-        <f>VLOOKUP(B88, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <f>VLOOKUP(C88, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Mccarran International Airport</v>
+      </c>
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
         <v>2367</v>
       </c>
@@ -11869,11 +13795,12 @@
         <v>Iberia</v>
       </c>
       <c r="E89" s="1" t="str">
-        <f>VLOOKUP(B89, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <f>VLOOKUP(C89, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
         <v>2368</v>
       </c>
@@ -11888,11 +13815,12 @@
         <v>Japan Airlines</v>
       </c>
       <c r="E90" s="1" t="str">
-        <f>VLOOKUP(B90, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <f>VLOOKUP(C90, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Henderson Executive Airport</v>
+      </c>
+      <c r="H90"/>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="3" t="s">
         <v>2369</v>
       </c>
@@ -11907,11 +13835,12 @@
         <v>Korean Air</v>
       </c>
       <c r="E91" s="1" t="str">
-        <f>VLOOKUP(B91, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <f>VLOOKUP(C91, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
+      </c>
+      <c r="H91"/>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
         <v>2370</v>
       </c>
@@ -11926,11 +13855,12 @@
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E92" s="1" t="str">
-        <f>VLOOKUP(B92, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <f>VLOOKUP(C92, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Schipol Airport</v>
+      </c>
+      <c r="H92"/>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
         <v>2370</v>
       </c>
@@ -11945,11 +13875,12 @@
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E93" s="1" t="str">
-        <f>VLOOKUP(B93, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <f>VLOOKUP(C93, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H93"/>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="3" t="s">
         <v>2370</v>
       </c>
@@ -11964,11 +13895,12 @@
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E94" s="1" t="str">
-        <f>VLOOKUP(B94, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <f>VLOOKUP(C94, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Honolulu International Airport</v>
+      </c>
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="3" t="s">
         <v>2370</v>
       </c>
@@ -11983,11 +13915,12 @@
         <v>KLM Royal Dutch Airlines</v>
       </c>
       <c r="E95" s="1" t="str">
-        <f>VLOOKUP(B95, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <f>VLOOKUP(C95, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Seattle/Tacoma International Airport</v>
+      </c>
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="3" t="s">
         <v>2371</v>
       </c>
@@ -12002,11 +13935,12 @@
         <v>Lufthansa</v>
       </c>
       <c r="E96" s="1" t="str">
-        <f>VLOOKUP(B96, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <f>VLOOKUP(C96, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Frankfurt International Airport</v>
+      </c>
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="3" t="s">
         <v>2371</v>
       </c>
@@ -12021,11 +13955,12 @@
         <v>Lufthansa</v>
       </c>
       <c r="E97" s="1" t="str">
-        <f>VLOOKUP(B97, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <f>VLOOKUP(C97, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H97"/>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="3" t="s">
         <v>2371</v>
       </c>
@@ -12040,11 +13975,12 @@
         <v>Lufthansa</v>
       </c>
       <c r="E98" s="1" t="str">
-        <f>VLOOKUP(B98, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <f>VLOOKUP(C98, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Franz Josef Strauss International Airport</v>
+      </c>
+      <c r="H98"/>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="3" t="s">
         <v>2372</v>
       </c>
@@ -12059,11 +13995,12 @@
         <v>Swiss International Airlines</v>
       </c>
       <c r="E99" s="1" t="str">
-        <f>VLOOKUP(B99, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <f>VLOOKUP(C99, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Zurich International Airport</v>
+      </c>
+      <c r="H99"/>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>2373</v>
       </c>
@@ -12078,11 +14015,12 @@
         <v>China Eastern Air</v>
       </c>
       <c r="E100" s="1" t="str">
-        <f>VLOOKUP(B100, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <f>VLOOKUP(C100, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Pudong Airport</v>
+      </c>
+      <c r="H100"/>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="3" t="s">
         <v>621</v>
       </c>
@@ -12097,11 +14035,12 @@
         <v>All Nippon Airways</v>
       </c>
       <c r="E101" s="1" t="str">
-        <f>VLOOKUP(B101, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <f>VLOOKUP(C101, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kansai International Airport</v>
+      </c>
+      <c r="H101"/>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="3" t="s">
         <v>621</v>
       </c>
@@ -12116,11 +14055,12 @@
         <v>All Nippon Airways</v>
       </c>
       <c r="E102" s="1" t="str">
-        <f>VLOOKUP(B102, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <f>VLOOKUP(C102, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Narita International Airport</v>
+      </c>
+      <c r="H102"/>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12135,11 +14075,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E103" s="1" t="str">
-        <f>VLOOKUP(B103, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <f>VLOOKUP(C103, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Auckland International Airport</v>
+      </c>
+      <c r="H103"/>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12154,11 +14095,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E104" s="1" t="str">
-        <f>VLOOKUP(B104, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <f>VLOOKUP(C104, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H104"/>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12173,11 +14115,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E105" s="1" t="str">
-        <f>VLOOKUP(B105, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <f>VLOOKUP(C105, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Frankfurt International Airport</v>
+      </c>
+      <c r="H105"/>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12192,11 +14135,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E106" s="1" t="str">
-        <f>VLOOKUP(B106, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <f>VLOOKUP(C106, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Don Miguel Hidalgo International Airport</v>
+      </c>
+      <c r="H106"/>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12211,11 +14155,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E107" s="1" t="str">
-        <f>VLOOKUP(B107, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <f>VLOOKUP(C107, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H107"/>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12230,11 +14175,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E108" s="1" t="str">
-        <f>VLOOKUP(B108, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <f>VLOOKUP(C108, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Benito Juarez International Airport</v>
+      </c>
+      <c r="H108"/>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="3" t="s">
         <v>2374</v>
       </c>
@@ -12249,11 +14195,12 @@
         <v>Air New Zealand</v>
       </c>
       <c r="E109" s="1" t="str">
-        <f>VLOOKUP(B109, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <f>VLOOKUP(C109, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kingsford Smith International Airport</v>
+      </c>
+      <c r="H109"/>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="3" t="s">
         <v>2375</v>
       </c>
@@ -12268,11 +14215,12 @@
         <v>Asiana Airlines</v>
       </c>
       <c r="E110" s="1" t="str">
-        <f>VLOOKUP(B110, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <f>VLOOKUP(C110, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
+      </c>
+      <c r="H110"/>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="3" t="s">
         <v>158</v>
       </c>
@@ -12287,11 +14235,12 @@
         <v>Philippine Airlines</v>
       </c>
       <c r="E111" s="1" t="str">
-        <f>VLOOKUP(B111, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <f>VLOOKUP(C111, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Ninoy Aquino International Airport</v>
+      </c>
+      <c r="H111"/>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="3" t="s">
         <v>2376</v>
       </c>
@@ -12306,11 +14255,12 @@
         <v>SAS</v>
       </c>
       <c r="E112" s="1" t="str">
-        <f>VLOOKUP(B112, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <f>VLOOKUP(C112, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kastrup International Airport</v>
+      </c>
+      <c r="H112"/>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>2377</v>
       </c>
@@ -12325,11 +14275,12 @@
         <v>Singapore Airlines</v>
       </c>
       <c r="E113" s="1" t="str">
-        <f>VLOOKUP(B113, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <f>VLOOKUP(C113, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Hong Kong International Airport</v>
+      </c>
+      <c r="H113"/>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="3" t="s">
         <v>2377</v>
       </c>
@@ -12344,11 +14295,12 @@
         <v>Singapore Airlines</v>
       </c>
       <c r="E114" s="1" t="str">
-        <f>VLOOKUP(B114, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <f>VLOOKUP(C114, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
+      </c>
+      <c r="H114"/>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="3" t="s">
         <v>2378</v>
       </c>
@@ -12363,11 +14315,12 @@
         <v>Sun Country Airlines</v>
       </c>
       <c r="E115" s="1" t="str">
-        <f>VLOOKUP(B115, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <f>VLOOKUP(C115, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Minneapolis/St. Paul International Airport</v>
+      </c>
+      <c r="H115"/>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12382,11 +14335,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E116" s="1" t="str">
-        <f>VLOOKUP(B116, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <f>VLOOKUP(C116, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Albuquerque International Sunport</v>
+      </c>
+      <c r="H116"/>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12401,11 +14355,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E117" s="1" t="str">
-        <f>VLOOKUP(B117, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <f>VLOOKUP(C117, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Arcata Airport</v>
+      </c>
+      <c r="H117"/>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12420,11 +14375,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E118" s="1" t="str">
-        <f>VLOOKUP(B118, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <f>VLOOKUP(C118, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Auckland International Airport</v>
+      </c>
+      <c r="H118"/>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12439,11 +14395,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E119" s="1" t="str">
-        <f>VLOOKUP(B119, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <f>VLOOKUP(C119, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H119"/>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12458,11 +14415,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E120" s="1" t="str">
-        <f>VLOOKUP(B120, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <f>VLOOKUP(C120, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Austin-Bergstrom International Airport</v>
+      </c>
+      <c r="H120"/>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12477,11 +14435,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E121" s="1" t="str">
-        <f>VLOOKUP(B121, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <f>VLOOKUP(C121, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Meadows Field Airport</v>
+      </c>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12496,11 +14455,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E122" s="1" t="str">
-        <f>VLOOKUP(B122, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <f>VLOOKUP(C122, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Boise Airport</v>
+      </c>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12515,11 +14475,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E123" s="1" t="str">
-        <f>VLOOKUP(B123, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <f>VLOOKUP(C123, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Boston Logan International Airport</v>
+      </c>
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12534,11 +14495,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E124" s="1" t="str">
-        <f>VLOOKUP(B124, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <f>VLOOKUP(C124, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Burbank Bob Hope Airport</v>
+      </c>
+      <c r="H124"/>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12553,11 +14515,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E125" s="1" t="str">
-        <f>VLOOKUP(B125, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <f>VLOOKUP(C125, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Baltimore / Washington International Airport</v>
+      </c>
+      <c r="H125"/>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12572,11 +14535,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E126" s="1" t="str">
-        <f>VLOOKUP(B126, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <f>VLOOKUP(C126, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Charles De Gaulle International Airport</v>
+      </c>
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12591,11 +14555,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E127" s="1" t="str">
-        <f>VLOOKUP(B127, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <f>VLOOKUP(C127, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Jack Mc Namara Field Airport</v>
+      </c>
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12610,11 +14575,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E128" s="1" t="str">
-        <f>VLOOKUP(B128, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <f>VLOOKUP(C128, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chico Municipal Airport</v>
+      </c>
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12629,11 +14595,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E129" s="1" t="str">
-        <f>VLOOKUP(B129, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <f>VLOOKUP(C129, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Cleveland Hopkins International Airport</v>
+      </c>
+      <c r="H129"/>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12648,11 +14615,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E130" s="1" t="str">
-        <f>VLOOKUP(B130, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <f>VLOOKUP(C130, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Colorado Springs Airport</v>
+      </c>
+      <c r="H130"/>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12667,11 +14635,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E131" s="1" t="str">
-        <f>VLOOKUP(B131, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <f>VLOOKUP(C131, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Cancun International Airport</v>
+      </c>
+      <c r="H131"/>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12686,11 +14655,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E132" s="1" t="str">
-        <f>VLOOKUP(B132, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <f>VLOOKUP(C132, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Ronald Reagan Washington National Airport</v>
+      </c>
+      <c r="H132"/>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12705,11 +14675,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E133" s="1" t="str">
-        <f>VLOOKUP(B133, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <f>VLOOKUP(C133, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Denver International Airport</v>
+      </c>
+      <c r="H133"/>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12724,11 +14695,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E134" s="1" t="str">
-        <f>VLOOKUP(B134, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <f>VLOOKUP(C134, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dallas/Fort Worth International Airport</v>
+      </c>
+      <c r="H134"/>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12743,11 +14715,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E135" s="1" t="str">
-        <f>VLOOKUP(B135, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <f>VLOOKUP(C135, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Eugene Airport</v>
+      </c>
+      <c r="H135"/>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12762,11 +14735,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E136" s="1" t="str">
-        <f>VLOOKUP(B136, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <f>VLOOKUP(C136, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Newark Liberty International Airport</v>
+      </c>
+      <c r="H136"/>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12781,11 +14755,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E137" s="1" t="str">
-        <f>VLOOKUP(B137, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <f>VLOOKUP(C137, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Fresno Air Terminal</v>
+      </c>
+      <c r="H137"/>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12800,11 +14775,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E138" s="1" t="str">
-        <f>VLOOKUP(B138, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <f>VLOOKUP(C138, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Fort Lauderdale Hollywood International Airport</v>
+      </c>
+      <c r="H138"/>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12819,11 +14795,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E139" s="1" t="str">
-        <f>VLOOKUP(B139, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <f>VLOOKUP(C139, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Frankfurt International Airport</v>
+      </c>
+      <c r="H139"/>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12838,11 +14815,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E140" s="1" t="str">
-        <f>VLOOKUP(B140, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <f>VLOOKUP(C140, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Don Miguel Hidalgo International Airport</v>
+      </c>
+      <c r="H140"/>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12857,11 +14835,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E141" s="1" t="str">
-        <f>VLOOKUP(B141, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <f>VLOOKUP(C141, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Hong Kong International Airport</v>
+      </c>
+      <c r="H141"/>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12876,11 +14855,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E142" s="1" t="str">
-        <f>VLOOKUP(B142, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <f>VLOOKUP(C142, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Honolulu International Airport</v>
+      </c>
+      <c r="H142"/>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12895,11 +14875,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E143" s="1" t="str">
-        <f>VLOOKUP(B143, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <f>VLOOKUP(C143, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Washington Dulles International Airport</v>
+      </c>
+      <c r="H143"/>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12914,11 +14895,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E144" s="1" t="str">
-        <f>VLOOKUP(B144, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <f>VLOOKUP(C144, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Bush Intercontinental Airport</v>
+      </c>
+      <c r="H144"/>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12933,11 +14915,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E145" s="1" t="str">
-        <f>VLOOKUP(B145, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <f>VLOOKUP(C145, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
+      </c>
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12952,11 +14935,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E146" s="1" t="str">
-        <f>VLOOKUP(B146, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <f>VLOOKUP(C146, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Indianapolis International Airport</v>
+      </c>
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12971,11 +14955,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E147" s="1" t="str">
-        <f>VLOOKUP(B147, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <f>VLOOKUP(C147, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
+      </c>
+      <c r="H147"/>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="3" t="s">
         <v>2379</v>
       </c>
@@ -12990,11 +14975,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E148" s="1" t="str">
-        <f>VLOOKUP(B148, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <f>VLOOKUP(C148, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kansai International Airport</v>
+      </c>
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13009,11 +14995,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E149" s="1" t="str">
-        <f>VLOOKUP(B149, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <f>VLOOKUP(C149, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kona International Airport</v>
+      </c>
+      <c r="H149"/>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13028,11 +15015,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E150" s="1" t="str">
-        <f>VLOOKUP(B150, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <f>VLOOKUP(C150, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Mccarran International Airport</v>
+      </c>
+      <c r="H150"/>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13047,11 +15035,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E151" s="1" t="str">
-        <f>VLOOKUP(B151, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <f>VLOOKUP(C151, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
+      </c>
+      <c r="H151"/>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13066,11 +15055,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E152" s="1" t="str">
-        <f>VLOOKUP(B152, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <f>VLOOKUP(C152, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13085,11 +15075,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E153" s="1" t="str">
-        <f>VLOOKUP(B153, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <f>VLOOKUP(C153, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lihue Airport</v>
+      </c>
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13104,11 +15095,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E154" s="1" t="str">
-        <f>VLOOKUP(B154, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <f>VLOOKUP(C154, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Klamath Falls Airport</v>
+      </c>
+      <c r="H154"/>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13123,11 +15115,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E155" s="1" t="str">
-        <f>VLOOKUP(B155, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <f>VLOOKUP(C155, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kansas City International Airport</v>
+      </c>
+      <c r="H155"/>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13142,11 +15135,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E156" s="1" t="str">
-        <f>VLOOKUP(B156, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <f>VLOOKUP(C156, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Orlando International Airport</v>
+      </c>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13161,11 +15155,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E157" s="1" t="str">
-        <f>VLOOKUP(B157, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <f>VLOOKUP(C157, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Benito Juarez International Airport</v>
+      </c>
+      <c r="H157"/>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13180,11 +15175,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E158" s="1" t="str">
-        <f>VLOOKUP(B158, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <f>VLOOKUP(C158, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Medford Rogue Valley International Airport</v>
+      </c>
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13199,11 +15195,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E159" s="1" t="str">
-        <f>VLOOKUP(B159, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <f>VLOOKUP(C159, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Modesto City-County Airport</v>
+      </c>
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13218,11 +15215,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E160" s="1" t="str">
-        <f>VLOOKUP(B160, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <f>VLOOKUP(C160, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Monterey Peninsula Airport</v>
+      </c>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13237,11 +15235,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E161" s="1" t="str">
-        <f>VLOOKUP(B161, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <f>VLOOKUP(C161, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Minneapolis/St. Paul International Airport</v>
+      </c>
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13256,11 +15255,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E162" s="1" t="str">
-        <f>VLOOKUP(B162, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <f>VLOOKUP(C162, Airports!airport_lookup, 2, FALSE)</f>
+        <v>New Orleans International Airport</v>
+      </c>
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13275,11 +15275,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E163" s="1" t="str">
-        <f>VLOOKUP(B163, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <f>VLOOKUP(C163, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Franz Josef Strauss International Airport</v>
+      </c>
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13294,11 +15295,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E164" s="1" t="str">
-        <f>VLOOKUP(B164, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <f>VLOOKUP(C164, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Narita International Airport</v>
+      </c>
+      <c r="H164"/>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13313,11 +15315,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E165" s="1" t="str">
-        <f>VLOOKUP(B165, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <f>VLOOKUP(C165, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kahului Airport</v>
+      </c>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13332,11 +15335,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E166" s="1" t="str">
-        <f>VLOOKUP(B166, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <f>VLOOKUP(C166, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Will Rogers World Airport</v>
+      </c>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13351,11 +15355,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E167" s="1" t="str">
-        <f>VLOOKUP(B167, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <f>VLOOKUP(C167, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Ontario International Airport</v>
+      </c>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13370,11 +15375,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E168" s="1" t="str">
-        <f>VLOOKUP(B168, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <f>VLOOKUP(C168, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago O'hare International Airport</v>
+      </c>
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13389,11 +15395,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E169" s="1" t="str">
-        <f>VLOOKUP(B169, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <f>VLOOKUP(C169, Airports!airport_lookup, 2, FALSE)</f>
+        <v>North Bend Municipal Airport</v>
+      </c>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13408,11 +15415,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E170" s="1" t="str">
-        <f>VLOOKUP(B170, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <f>VLOOKUP(C170, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Portland International Airport</v>
+      </c>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13427,11 +15435,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E171" s="1" t="str">
-        <f>VLOOKUP(B171, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <f>VLOOKUP(C171, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Beijing Capital International Airport</v>
+      </c>
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13446,11 +15455,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E172" s="1" t="str">
-        <f>VLOOKUP(B172, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <f>VLOOKUP(C172, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Philadelphia International Airport</v>
+      </c>
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13465,11 +15475,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E173" s="1" t="str">
-        <f>VLOOKUP(B173, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <f>VLOOKUP(C173, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Phoenix Sky Harbor International Airport</v>
+      </c>
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13484,11 +15495,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E174" s="1" t="str">
-        <f>VLOOKUP(B174, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <f>VLOOKUP(C174, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Pittsburgh International Airport</v>
+      </c>
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13503,11 +15515,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E175" s="1" t="str">
-        <f>VLOOKUP(B175, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <f>VLOOKUP(C175, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Tri-Cities Airport</v>
+      </c>
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13522,11 +15535,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E176" s="1" t="str">
-        <f>VLOOKUP(B176, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <f>VLOOKUP(C176, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Palm Springs International Airport</v>
+      </c>
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13541,11 +15555,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E177" s="1" t="str">
-        <f>VLOOKUP(B177, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <f>VLOOKUP(C177, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Pudong Airport</v>
+      </c>
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13560,11 +15575,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E178" s="1" t="str">
-        <f>VLOOKUP(B178, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <f>VLOOKUP(C178, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lic Gustavo Diaz Ordaz International Air</v>
+      </c>
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13579,11 +15595,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E179" s="1" t="str">
-        <f>VLOOKUP(B179, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <f>VLOOKUP(C179, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Redding Municipal Airport</v>
+      </c>
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13598,11 +15615,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E180" s="1" t="str">
-        <f>VLOOKUP(B180, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <f>VLOOKUP(C180, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Roberts Field</v>
+      </c>
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13617,11 +15635,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E181" s="1" t="str">
-        <f>VLOOKUP(B181, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <f>VLOOKUP(C181, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Raleigh-Durham International Airport</v>
+      </c>
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13636,11 +15655,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E182" s="1" t="str">
-        <f>VLOOKUP(B182, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <f>VLOOKUP(C182, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Reno-Tahoe International Airport</v>
+      </c>
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13655,11 +15675,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E183" s="1" t="str">
-        <f>VLOOKUP(B183, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <f>VLOOKUP(C183, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Comalapa International Airport</v>
+      </c>
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13674,11 +15695,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E184" s="1" t="str">
-        <f>VLOOKUP(B184, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <f>VLOOKUP(C184, Airports!airport_lookup, 2, FALSE)</f>
+        <v>San Diego International Airport</v>
+      </c>
+      <c r="H184"/>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13693,11 +15715,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E185" s="1" t="str">
-        <f>VLOOKUP(B185, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <f>VLOOKUP(C185, Airports!airport_lookup, 2, FALSE)</f>
+        <v>San Antonio International Airport</v>
+      </c>
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13712,11 +15735,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E186" s="1" t="str">
-        <f>VLOOKUP(B186, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <f>VLOOKUP(C186, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Santa Barbara Airport</v>
+      </c>
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13731,11 +15755,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E187" s="1" t="str">
-        <f>VLOOKUP(B187, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <f>VLOOKUP(C187, Airports!airport_lookup, 2, FALSE)</f>
+        <v>San Luis County Regional Airport</v>
+      </c>
+      <c r="H187"/>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13750,11 +15775,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E188" s="1" t="str">
-        <f>VLOOKUP(B188, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <f>VLOOKUP(C188, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Seattle/Tacoma International Airport</v>
+      </c>
+      <c r="H188"/>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13769,11 +15795,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E189" s="1" t="str">
-        <f>VLOOKUP(B189, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <f>VLOOKUP(C189, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Cabos International Airport</v>
+      </c>
+      <c r="H189"/>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13788,11 +15815,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E190" s="1" t="str">
-        <f>VLOOKUP(B190, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <f>VLOOKUP(C190, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Salt Lake City International Airport</v>
+      </c>
+      <c r="H190"/>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13807,11 +15835,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E191" s="1" t="str">
-        <f>VLOOKUP(B191, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <f>VLOOKUP(C191, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Sacramento International Airport</v>
+      </c>
+      <c r="H191"/>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13826,11 +15855,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E192" s="1" t="str">
-        <f>VLOOKUP(B192, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <f>VLOOKUP(C192, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John Wayne Airport</v>
+      </c>
+      <c r="H192"/>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13845,11 +15875,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E193" s="1" t="str">
-        <f>VLOOKUP(B193, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <f>VLOOKUP(C193, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lambert-St. Louis International Airport</v>
+      </c>
+      <c r="H193"/>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13864,11 +15895,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E194" s="1" t="str">
-        <f>VLOOKUP(B194, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <f>VLOOKUP(C194, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Kingsford Smith International Airport</v>
+      </c>
+      <c r="H194"/>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13883,11 +15915,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E195" s="1" t="str">
-        <f>VLOOKUP(B195, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <f>VLOOKUP(C195, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chiang Kai-Shek International Airport</v>
+      </c>
+      <c r="H195"/>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13902,11 +15935,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E196" s="1" t="str">
-        <f>VLOOKUP(B196, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <f>VLOOKUP(C196, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Tucson International Airport</v>
+      </c>
+      <c r="H196"/>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13921,11 +15955,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E197" s="1" t="str">
-        <f>VLOOKUP(B197, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <f>VLOOKUP(C197, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Edmonton International Airport</v>
+      </c>
+      <c r="H197"/>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13940,11 +15975,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E198" s="1" t="str">
-        <f>VLOOKUP(B198, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <f>VLOOKUP(C198, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Montreal Dorval Airport</v>
+      </c>
+      <c r="H198"/>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13959,11 +15995,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E199" s="1" t="str">
-        <f>VLOOKUP(B199, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <f>VLOOKUP(C199, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Vancouver International Airport</v>
+      </c>
+      <c r="H199"/>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13978,11 +16015,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E200" s="1" t="str">
-        <f>VLOOKUP(B200, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <f>VLOOKUP(C200, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Calgary International Airport</v>
+      </c>
+      <c r="H200"/>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="3" t="s">
         <v>2379</v>
       </c>
@@ -13997,11 +16035,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E201" s="1" t="str">
-        <f>VLOOKUP(B201, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <f>VLOOKUP(C201, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Victoria International Airport</v>
+      </c>
+      <c r="H201"/>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="3" t="s">
         <v>2379</v>
       </c>
@@ -14016,11 +16055,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E202" s="1" t="str">
-        <f>VLOOKUP(B202, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <f>VLOOKUP(C202, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lester B Pearson International Airport</v>
+      </c>
+      <c r="H202"/>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="3" t="s">
         <v>2379</v>
       </c>
@@ -14035,11 +16075,12 @@
         <v>United Airlines</v>
       </c>
       <c r="E203" s="1" t="str">
-        <f>VLOOKUP(B203, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <f>VLOOKUP(C203, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Zurich International Airport</v>
+      </c>
+      <c r="H203"/>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="3" t="s">
         <v>2380</v>
       </c>
@@ -14054,11 +16095,12 @@
         <v>Transaero</v>
       </c>
       <c r="E204" s="1" t="str">
-        <f>VLOOKUP(B204, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <f>VLOOKUP(C204, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H204"/>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14073,11 +16115,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E205" s="1" t="str">
-        <f>VLOOKUP(B205, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <f>VLOOKUP(C205, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Auckland International Airport</v>
+      </c>
+      <c r="H205"/>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14092,11 +16135,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E206" s="1" t="str">
-        <f>VLOOKUP(B206, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <f>VLOOKUP(C206, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Charlotte/Douglas International Airport</v>
+      </c>
+      <c r="H206"/>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14111,11 +16155,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E207" s="1" t="str">
-        <f>VLOOKUP(B207, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <f>VLOOKUP(C207, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dallas/Fort Worth International Airport</v>
+      </c>
+      <c r="H207"/>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14130,11 +16175,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E208" s="1" t="str">
-        <f>VLOOKUP(B208, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <f>VLOOKUP(C208, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Hong Kong International Airport</v>
+      </c>
+      <c r="H208"/>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14149,11 +16195,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E209" s="1" t="str">
-        <f>VLOOKUP(B209, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <f>VLOOKUP(C209, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Incheon International Airport</v>
+      </c>
+      <c r="H209"/>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14168,11 +16215,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E210" s="1" t="str">
-        <f>VLOOKUP(B210, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <f>VLOOKUP(C210, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
+      </c>
+      <c r="H210"/>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14187,11 +16235,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E211" s="1" t="str">
-        <f>VLOOKUP(B211, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <f>VLOOKUP(C211, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
+      </c>
+      <c r="H211"/>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14206,11 +16255,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E212" s="1" t="str">
-        <f>VLOOKUP(B212, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <f>VLOOKUP(C212, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Miami International Airport</v>
+      </c>
+      <c r="H212"/>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14225,11 +16275,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E213" s="1" t="str">
-        <f>VLOOKUP(B213, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <f>VLOOKUP(C213, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago O'hare International Airport</v>
+      </c>
+      <c r="H213"/>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14244,11 +16295,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E214" s="1" t="str">
-        <f>VLOOKUP(B214, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <f>VLOOKUP(C214, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Beijing Capital International Airport</v>
+      </c>
+      <c r="H214"/>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14263,11 +16315,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E215" s="1" t="str">
-        <f>VLOOKUP(B215, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <f>VLOOKUP(C215, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Philadelphia International Airport</v>
+      </c>
+      <c r="H215"/>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14282,11 +16335,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E216" s="1" t="str">
-        <f>VLOOKUP(B216, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <f>VLOOKUP(C216, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Phoenix Sky Harbor International Airport</v>
+      </c>
+      <c r="H216"/>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14301,11 +16355,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E217" s="1" t="str">
-        <f>VLOOKUP(B217, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <f>VLOOKUP(C217, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Comalapa International Airport</v>
+      </c>
+      <c r="H217"/>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="3" t="s">
         <v>2381</v>
       </c>
@@ -14320,11 +16375,12 @@
         <v>Chautauqua Airlines (US Airways Express)</v>
       </c>
       <c r="E218" s="1" t="str">
-        <f>VLOOKUP(B218, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <f>VLOOKUP(C218, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chiang Kai-Shek International Airport</v>
+      </c>
+      <c r="H218"/>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="3" t="s">
         <v>2382</v>
       </c>
@@ -14339,11 +16395,12 @@
         <v>Virgin Atlantic</v>
       </c>
       <c r="E219" s="1" t="str">
-        <f>VLOOKUP(B219, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <f>VLOOKUP(C219, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H219"/>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="3" t="s">
         <v>2382</v>
       </c>
@@ -14358,11 +16415,12 @@
         <v>Virgin Atlantic</v>
       </c>
       <c r="E220" s="1" t="str">
-        <f>VLOOKUP(B220, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <f>VLOOKUP(C220, Airports!airport_lookup, 2, FALSE)</f>
+        <v>London Heathrow Airport</v>
+      </c>
+      <c r="H220"/>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14377,11 +16435,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E221" s="1" t="str">
-        <f>VLOOKUP(B221, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <f>VLOOKUP(C221, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Austin-Bergstrom International Airport</v>
+      </c>
+      <c r="H221"/>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14396,11 +16455,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E222" s="1" t="str">
-        <f>VLOOKUP(B222, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <f>VLOOKUP(C222, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Boston Logan International Airport</v>
+      </c>
+      <c r="H222"/>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14415,11 +16475,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E223" s="1" t="str">
-        <f>VLOOKUP(B223, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <f>VLOOKUP(C223, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Cancun International Airport</v>
+      </c>
+      <c r="H223"/>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14434,11 +16495,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E224" s="1" t="str">
-        <f>VLOOKUP(B224, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <f>VLOOKUP(C224, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Ronald Reagan Washington National Airport</v>
+      </c>
+      <c r="H224"/>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14453,11 +16515,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E225" s="1" t="str">
-        <f>VLOOKUP(B225, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <f>VLOOKUP(C225, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Dallas/Fort Worth International Airport</v>
+      </c>
+      <c r="H225"/>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14472,11 +16535,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E226" s="1" t="str">
-        <f>VLOOKUP(B226, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <f>VLOOKUP(C226, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Newark Liberty International Airport</v>
+      </c>
+      <c r="H226"/>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14491,11 +16555,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E227" s="1" t="str">
-        <f>VLOOKUP(B227, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <f>VLOOKUP(C227, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Fort Lauderdale Hollywood International Airport</v>
+      </c>
+      <c r="H227"/>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14510,11 +16575,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E228" s="1" t="str">
-        <f>VLOOKUP(B228, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <f>VLOOKUP(C228, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Washington Dulles International Airport</v>
+      </c>
+      <c r="H228"/>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14529,11 +16595,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E229" s="1" t="str">
-        <f>VLOOKUP(B229, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <f>VLOOKUP(C229, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John F. Kennedy International Airport</v>
+      </c>
+      <c r="H229"/>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14548,11 +16615,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E230" s="1" t="str">
-        <f>VLOOKUP(B230, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <f>VLOOKUP(C230, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Mccarran International Airport</v>
+      </c>
+      <c r="H230"/>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14567,11 +16635,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E231" s="1" t="str">
-        <f>VLOOKUP(B231, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <f>VLOOKUP(C231, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
+      </c>
+      <c r="H231"/>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14586,11 +16655,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E232" s="1" t="str">
-        <f>VLOOKUP(B232, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <f>VLOOKUP(C232, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Orlando International Airport</v>
+      </c>
+      <c r="H232"/>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14605,11 +16675,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E233" s="1" t="str">
-        <f>VLOOKUP(B233, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <f>VLOOKUP(C233, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago O'hare International Airport</v>
+      </c>
+      <c r="H233"/>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14624,11 +16695,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E234" s="1" t="str">
-        <f>VLOOKUP(B234, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <f>VLOOKUP(C234, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Portland International Airport</v>
+      </c>
+      <c r="H234"/>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14643,11 +16715,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E235" s="1" t="str">
-        <f>VLOOKUP(B235, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <f>VLOOKUP(C235, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Philadelphia International Airport</v>
+      </c>
+      <c r="H235"/>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14662,11 +16735,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E236" s="1" t="str">
-        <f>VLOOKUP(B236, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <f>VLOOKUP(C236, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Lic Gustavo Diaz Ordaz International Air</v>
+      </c>
+      <c r="H236"/>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14681,11 +16755,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E237" s="1" t="str">
-        <f>VLOOKUP(B237, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <f>VLOOKUP(C237, Airports!airport_lookup, 2, FALSE)</f>
+        <v>San Diego International Airport</v>
+      </c>
+      <c r="H237"/>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14700,11 +16775,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E238" s="1" t="str">
-        <f>VLOOKUP(B238, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <f>VLOOKUP(C238, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Seattle/Tacoma International Airport</v>
+      </c>
+      <c r="H238"/>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="3" t="s">
         <v>2383</v>
       </c>
@@ -14719,11 +16795,12 @@
         <v>Virgin America</v>
       </c>
       <c r="E239" s="1" t="str">
-        <f>VLOOKUP(B239, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <f>VLOOKUP(C239, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Cabos International Airport</v>
+      </c>
+      <c r="H239"/>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14738,11 +16815,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E240" s="1" t="str">
-        <f>VLOOKUP(B240, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <f>VLOOKUP(C240, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Atlanta International Airport</v>
+      </c>
+      <c r="H240"/>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14757,11 +16835,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E241" s="1" t="str">
-        <f>VLOOKUP(B241, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <f>VLOOKUP(C241, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Denver International Airport</v>
+      </c>
+      <c r="H241"/>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14776,11 +16855,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E242" s="1" t="str">
-        <f>VLOOKUP(B242, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <f>VLOOKUP(C242, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Mccarran International Airport</v>
+      </c>
+      <c r="H242"/>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14795,11 +16875,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E243" s="1" t="str">
-        <f>VLOOKUP(B243, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <f>VLOOKUP(C243, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Los Angeles International Airport</v>
+      </c>
+      <c r="H243"/>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14814,11 +16895,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E244" s="1" t="str">
-        <f>VLOOKUP(B244, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <f>VLOOKUP(C244, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Chicago Midway Airport</v>
+      </c>
+      <c r="H244"/>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14833,11 +16915,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E245" s="1" t="str">
-        <f>VLOOKUP(B245, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <f>VLOOKUP(C245, Airports!airport_lookup, 2, FALSE)</f>
+        <v>General Mitchell International Airport</v>
+      </c>
+      <c r="H245"/>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14852,11 +16935,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E246" s="1" t="str">
-        <f>VLOOKUP(B246, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <f>VLOOKUP(C246, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Phoenix Sky Harbor International Airport</v>
+      </c>
+      <c r="H246"/>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14871,11 +16955,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E247" s="1" t="str">
-        <f>VLOOKUP(B247, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <f>VLOOKUP(C247, Airports!airport_lookup, 2, FALSE)</f>
+        <v>San Diego International Airport</v>
+      </c>
+      <c r="H247"/>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="3" t="s">
         <v>2384</v>
       </c>
@@ -14890,11 +16975,12 @@
         <v>Southwest Airlines</v>
       </c>
       <c r="E248" s="1" t="str">
-        <f>VLOOKUP(B248, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <f>VLOOKUP(C248, Airports!airport_lookup, 2, FALSE)</f>
+        <v>John Wayne Airport</v>
+      </c>
+      <c r="H248"/>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="3" t="s">
         <v>2385</v>
       </c>
@@ -14909,11 +16995,12 @@
         <v>WestJet</v>
       </c>
       <c r="E249" s="1" t="str">
-        <f>VLOOKUP(B249, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <f>VLOOKUP(C249, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Vancouver International Airport</v>
+      </c>
+      <c r="H249"/>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="3" t="s">
         <v>2385</v>
       </c>
@@ -14928,19 +17015,22 @@
         <v>WestJet</v>
       </c>
       <c r="E250" s="1" t="str">
-        <f>VLOOKUP(B250, Airports!airport_lookup, 2, FALSE)</f>
-        <v>San Francisco International Airport</v>
-      </c>
+        <f>VLOOKUP(C250, Airports!airport_lookup, 2, FALSE)</f>
+        <v>Calgary International Airport</v>
+      </c>
+      <c r="H250"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E250"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18851,8 +20941,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B1165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28195,15 +30286,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -28238,10 +30330,11 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>